--- a/OKA1-HV.xlsx
+++ b/OKA1-HV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B42C03-3B29-4F6A-9B30-8C68C9A86497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6CAFD5-945B-4423-AE18-A9CC94FDAA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{53EBF420-4DA3-4F61-86F0-B6F3ACCAF6B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{53EBF420-4DA3-4F61-86F0-B6F3ACCAF6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Rf" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
   <si>
     <t>Mức độ rủi ro</t>
   </si>
@@ -472,6 +472,42 @@
   </si>
   <si>
     <t>MySQL</t>
+  </si>
+  <si>
+    <t>Do làm dự án sai hướng, phải làm lại nhiều lần</t>
+  </si>
+  <si>
+    <t>Làm lại, tìm kiếm thông tin trên youtube, github…</t>
+  </si>
+  <si>
+    <t>Vượt quá chi phí ngân sách</t>
+  </si>
+  <si>
+    <t>Thành viên không đủ năng lực để test dự án</t>
+  </si>
+  <si>
+    <t>Thiếu kỹ năng</t>
+  </si>
+  <si>
+    <t>Tìm hiểu các cách sửa lỗi trên github, google…</t>
+  </si>
+  <si>
+    <t>Giao tiếp không hiệu quả</t>
+  </si>
+  <si>
+    <t>Thành viên trong nhóm còn nhiều nhầm lẫn trong việc phân chia</t>
+  </si>
+  <si>
+    <t>Cùng nhau họp, giải thích kỹ càng về hướng đi của dự án</t>
+  </si>
+  <si>
+    <t>Phát triển các chức năng khách hàng không yêu cầu</t>
+  </si>
+  <si>
+    <t>Hiểu sai yêu cầu của khách hàng</t>
+  </si>
+  <si>
+    <t>Trao đổi với khách hàng để cố gắng thay đổi theo được ý kiến của khách hàng</t>
   </si>
 </sst>
 </file>
@@ -625,7 +661,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -667,6 +703,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -987,7 +1030,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D2B7D8-ECA8-4BAE-BF49-24418A6CB6E1}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2553,17 +2596,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDF18BC-A28F-4C52-908A-3185FA2A14AE}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
@@ -2626,7 +2669,10 @@
       <c r="G2" s="15">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="14">
+        <f>F2*G2</f>
+        <v>5</v>
+      </c>
       <c r="I2" s="14" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2702,10 @@
       <c r="G3" s="15">
         <v>0.75</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H10" si="0">F3*G3</f>
+        <v>3</v>
+      </c>
       <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
@@ -2684,7 +2733,10 @@
       <c r="G4" s="15">
         <v>0.5</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I4" s="14" t="s">
         <v>22</v>
       </c>
@@ -2705,19 +2757,181 @@
       <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="F5" s="14">
         <v>4</v>
       </c>
       <c r="G5" s="15">
         <v>0.75</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="18">
+        <v>4</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="18">
+        <v>3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
